--- a/templates/reliability_data.xlsx
+++ b/templates/reliability_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n.barla\Documents\Local_codes\HVDCWISE_TEA.jl\studies\simple_use_case\user_interface\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n.barla\Documents\Local_codes\HVDCWISE_TEA.jl\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D218E95A-E291-4500-9657-CC7F8A87D7D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91AD2C90-A17E-4513-84FF-C080919D0DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="5715" windowWidth="15510" windowHeight="7815" xr2:uid="{C57834E6-C588-4116-B15D-7ADB3B8705E5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C57834E6-C588-4116-B15D-7ADB3B8705E5}"/>
   </bookViews>
   <sheets>
     <sheet name="user_inputs" sheetId="10" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="48">
   <si>
     <t>Unit</t>
   </si>
@@ -134,9 +134,6 @@
     <t>Annual failure rate for DC OHL (per km share)</t>
   </si>
   <si>
-    <t>Annual failure rate for DC cable (fix share)</t>
-  </si>
-  <si>
     <t>Annual failure rate for AC OHL (fix share)</t>
   </si>
   <si>
@@ -171,6 +168,18 @@
   </si>
   <si>
     <t>MTTR_ohlac</t>
+  </si>
+  <si>
+    <t>MTTR for DC cable</t>
+  </si>
+  <si>
+    <t>MTTR for AC OHL (extreme events)</t>
+  </si>
+  <si>
+    <t>MTTR for DC OHL (extreme events)</t>
+  </si>
+  <si>
+    <t>MTTR for DC cable (extreme events)</t>
   </si>
 </sst>
 </file>
@@ -554,7 +563,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,7 +607,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3">
         <v>50</v>
@@ -632,7 +641,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5">
         <v>768</v>
@@ -649,7 +658,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6">
         <v>0.02</v>
@@ -666,7 +675,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7">
         <v>50</v>
@@ -700,7 +709,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9">
         <v>16</v>
@@ -717,7 +726,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10">
         <f xml:space="preserve"> 4*30*24</f>
@@ -730,12 +739,12 @@
         <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11">
         <v>0.22</v>
@@ -747,12 +756,12 @@
         <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12">
         <f>0.52*1.6/100</f>
@@ -765,7 +774,7 @@
         <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -800,7 +809,7 @@
         <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -840,7 +849,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17">
         <v>1500</v>
@@ -852,12 +861,12 @@
         <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B18">
         <v>1500</v>
@@ -869,7 +878,7 @@
         <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1137,15 +1146,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_Flow_SignoffStatus xmlns="37bcdbbe-1b84-46f8-a2e4-bedf5bd24576" xsi:nil="true"/>
@@ -1155,6 +1155,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1177,14 +1186,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB8192F-3B07-4D72-B166-5C843A05F0AB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F92369D0-E2D9-438E-977C-26874210B002}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1193,4 +1194,12 @@
     <ds:schemaRef ds:uri="e2fe3da4-e7b1-4e71-a513-56b717f56f6b"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB8192F-3B07-4D72-B166-5C843A05F0AB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/templates/reliability_data.xlsx
+++ b/templates/reliability_data.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n.barla\Documents\Local_codes\HVDCWISE_TEA.jl\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91AD2C90-A17E-4513-84FF-C080919D0DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36AC3237-A6EC-470E-BC41-475C9215C43B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C57834E6-C588-4116-B15D-7ADB3B8705E5}"/>
+    <workbookView xWindow="390" yWindow="360" windowWidth="19110" windowHeight="10035" xr2:uid="{C57834E6-C588-4116-B15D-7ADB3B8705E5}"/>
   </bookViews>
   <sheets>
-    <sheet name="user_inputs" sheetId="10" r:id="rId1"/>
+    <sheet name="user_inputs" sheetId="11" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Unit</t>
   </si>
@@ -44,149 +44,77 @@
     <t>h</t>
   </si>
   <si>
-    <t>Parameter</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Meaning</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>MTTRbr_ohldc</t>
-  </si>
-  <si>
-    <t>MTTRbr_ohldc_resil</t>
-  </si>
-  <si>
-    <t>FOR_genac</t>
-  </si>
-  <si>
-    <t>FOR_convdc</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
     <t>%</t>
   </si>
   <si>
-    <t>Scope</t>
-  </si>
-  <si>
-    <t>Number of time series to generate for contingencies</t>
-  </si>
-  <si>
-    <t>MTTR for Generator</t>
-  </si>
-  <si>
-    <t>Unavailability rate for Generator</t>
-  </si>
-  <si>
-    <t>MTTR for Transformer</t>
-  </si>
-  <si>
-    <t>Unavailability rate for Transformer</t>
-  </si>
-  <si>
-    <t>MTTR for Converter</t>
-  </si>
-  <si>
-    <t>Unavailability rate for Converter</t>
-  </si>
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>Extreme</t>
-  </si>
-  <si>
-    <t>MTTR for AC OHL</t>
-  </si>
-  <si>
-    <t>failurerate_fixe_ohldc</t>
-  </si>
-  <si>
-    <t>failurerate_perkm_ohldc</t>
-  </si>
-  <si>
-    <t>failurerate_perkm_cabledc</t>
-  </si>
-  <si>
     <t>1/y/km</t>
   </si>
   <si>
     <t>1/y</t>
   </si>
   <si>
-    <t>MTTR for DC OHL</t>
-  </si>
-  <si>
-    <t>Annual failure rate for DC OHL (fix share)</t>
-  </si>
-  <si>
-    <t>Annual failure rate for DC cable (per km share)</t>
-  </si>
-  <si>
-    <t>Annual failure rate for DC OHL (per km share)</t>
-  </si>
-  <si>
-    <t>Annual failure rate for AC OHL (fix share)</t>
-  </si>
-  <si>
-    <t>Annual failure rate for AC OHL (per km share)</t>
-  </si>
-  <si>
-    <t>MTTR_genac</t>
-  </si>
-  <si>
-    <t>MTTR_trac</t>
-  </si>
-  <si>
-    <t>FOR_trac</t>
-  </si>
-  <si>
-    <t>MTTR_convdc</t>
-  </si>
-  <si>
-    <t>MTTR_cabledc</t>
-  </si>
-  <si>
-    <t>MTTR_cabledc_resil</t>
-  </si>
-  <si>
-    <t>failurerate_perkm_ohlac</t>
-  </si>
-  <si>
-    <t>failurerate_fixe_ohlac</t>
-  </si>
-  <si>
-    <t>MTTR_ohlac_resil</t>
-  </si>
-  <si>
-    <t>MTTR_ohlac</t>
-  </si>
-  <si>
-    <t>MTTR for DC cable</t>
-  </si>
-  <si>
-    <t>MTTR for AC OHL (extreme events)</t>
-  </si>
-  <si>
-    <t>MTTR for DC OHL (extreme events)</t>
-  </si>
-  <si>
-    <t>MTTR for DC cable (extreme events)</t>
+    <t>FOR</t>
+  </si>
+  <si>
+    <t>Generator</t>
+  </si>
+  <si>
+    <t>Transformer</t>
+  </si>
+  <si>
+    <t>Attribute</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>AC OHL</t>
+  </si>
+  <si>
+    <t>DC OHL</t>
+  </si>
+  <si>
+    <t>DC cable</t>
+  </si>
+  <si>
+    <t>Mean Time To Repair for normal event</t>
+  </si>
+  <si>
+    <t>Failure rate for 0 km</t>
+  </si>
+  <si>
+    <t>Failure rate per km</t>
+  </si>
+  <si>
+    <t>Additional failure rate per km</t>
+  </si>
+  <si>
+    <t>Failure rate 0</t>
+  </si>
+  <si>
+    <t>Forced Outage Rate (unavailability rate). 0.01 means 1% of the time.</t>
+  </si>
+  <si>
+    <t>Converter ACDC</t>
+  </si>
+  <si>
+    <t>Correlation between poles</t>
+  </si>
+  <si>
+    <t>0: no correlation. 1: perfect correlation</t>
+  </si>
+  <si>
+    <t>Number between 0 &amp; 1</t>
+  </si>
+  <si>
+    <t>MTTR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,21 +122,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -225,7 +151,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -559,348 +485,183 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87A4241A-B7EF-49A3-937E-466F83E2E3EC}">
-  <dimension ref="A1:E19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A26795E-8921-4DF7-B78B-00632685AD82}">
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
+      <c r="F2" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
         <v>13</v>
       </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
         <v>50</v>
       </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
+      <c r="C4">
+        <v>0.03</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>0.03</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>768</v>
       </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="C5">
+        <v>0.02</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6">
+        <v>50</v>
+      </c>
+      <c r="C6">
+        <v>0.05</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6">
-        <v>0.02</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7">
-        <v>50</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>0.05</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10">
-        <f xml:space="preserve"> 4*30*24</f>
-        <v>2880</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11">
+      <c r="C7" s="1"/>
+      <c r="D7">
         <v>0.22</v>
       </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12">
+      <c r="E7">
         <f>0.52*1.6/100</f>
         <v>8.320000000000001E-3</v>
       </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" t="s">
-        <v>33</v>
-      </c>
+      <c r="F7" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
         <v>30</v>
       </c>
-      <c r="C13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14">
-        <f>4*30*24</f>
-        <v>2880</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15">
+      <c r="C8" s="1"/>
+      <c r="D8">
         <v>0.1</v>
       </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16">
+      <c r="E8">
         <f>0.05/100</f>
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" t="s">
-        <v>31</v>
+      <c r="F8">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
         <v>1500</v>
       </c>
-      <c r="C17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18">
-        <v>1500</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19">
+      <c r="C9" s="1"/>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
         <f>0.07/100</f>
         <v>7.000000000000001E-4</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" t="s">
-        <v>30</v>
+      <c r="F9">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/templates/reliability_data.xlsx
+++ b/templates/reliability_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n.barla\Documents\Local_codes\HVDCWISE_TEA.jl\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36AC3237-A6EC-470E-BC41-475C9215C43B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1361FF-3B1B-4925-BE01-A7C98B991EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="360" windowWidth="19110" windowHeight="10035" xr2:uid="{C57834E6-C588-4116-B15D-7ADB3B8705E5}"/>
   </bookViews>
@@ -101,23 +101,30 @@
     <t>Correlation between poles</t>
   </si>
   <si>
-    <t>0: no correlation. 1: perfect correlation</t>
-  </si>
-  <si>
     <t>Number between 0 &amp; 1</t>
   </si>
   <si>
     <t>MTTR</t>
+  </si>
+  <si>
+    <t>0: no correlation. 1: perfect correlation /!\ Feature not implement in the current version (0 is mandatory)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -149,9 +156,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,7 +497,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,7 +513,7 @@
         <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
@@ -537,7 +545,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -556,8 +564,8 @@
       <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
-        <v>21</v>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -666,6 +674,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="37bcdbbe-1b84-46f8-a2e4-bedf5bd24576" xsi:nil="true"/>
+    <TaxCatchAll xmlns="e2fe3da4-e7b1-4e71-a513-56b717f56f6b" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="37bcdbbe-1b84-46f8-a2e4-bedf5bd24576">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100360305CF8A5F8A4B86568FB88F41EB51" ma:contentTypeVersion="16" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="7820bdd98b12bbce6701f392baa49827">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="37bcdbbe-1b84-46f8-a2e4-bedf5bd24576" xmlns:ns3="e2fe3da4-e7b1-4e71-a513-56b717f56f6b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1a7208ee71179b2cd86960a83168177e" ns2:_="" ns3:_="">
     <xsd:import namespace="37bcdbbe-1b84-46f8-a2e4-bedf5bd24576"/>
@@ -906,18 +926,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="37bcdbbe-1b84-46f8-a2e4-bedf5bd24576" xsi:nil="true"/>
-    <TaxCatchAll xmlns="e2fe3da4-e7b1-4e71-a513-56b717f56f6b" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="37bcdbbe-1b84-46f8-a2e4-bedf5bd24576">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -928,6 +936,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F92369D0-E2D9-438E-977C-26874210B002}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="37bcdbbe-1b84-46f8-a2e4-bedf5bd24576"/>
+    <ds:schemaRef ds:uri="e2fe3da4-e7b1-4e71-a513-56b717f56f6b"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08E7CE95-6C7D-4EA1-9372-E88699DF4BE2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -946,17 +965,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F92369D0-E2D9-438E-977C-26874210B002}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="37bcdbbe-1b84-46f8-a2e4-bedf5bd24576"/>
-    <ds:schemaRef ds:uri="e2fe3da4-e7b1-4e71-a513-56b717f56f6b"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB8192F-3B07-4D72-B166-5C843A05F0AB}">
   <ds:schemaRefs>

--- a/templates/reliability_data.xlsx
+++ b/templates/reliability_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n.barla\Documents\Local_codes\HVDCWISE_TEA.jl\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1361FF-3B1B-4925-BE01-A7C98B991EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C084541-085B-4061-B4CF-F04C734C6F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="360" windowWidth="19110" windowHeight="10035" xr2:uid="{C57834E6-C588-4116-B15D-7ADB3B8705E5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C57834E6-C588-4116-B15D-7ADB3B8705E5}"/>
   </bookViews>
   <sheets>
     <sheet name="user_inputs" sheetId="11" r:id="rId1"/>
@@ -107,7 +107,7 @@
     <t>MTTR</t>
   </si>
   <si>
-    <t>0: no correlation. 1: perfect correlation /!\ Feature not implement in the current version (0 is mandatory)</t>
+    <t>0: no correlation. 1: perfect correlation /!\ Correlation &gt;0 is allowed only if you use Matlab (not Octave) and have the toolbox "Statistics and Machine Learning Toolbox"</t>
   </si>
 </sst>
 </file>
@@ -124,7 +124,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -497,7 +496,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,15 +673,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="37bcdbbe-1b84-46f8-a2e4-bedf5bd24576" xsi:nil="true"/>
-    <TaxCatchAll xmlns="e2fe3da4-e7b1-4e71-a513-56b717f56f6b" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="37bcdbbe-1b84-46f8-a2e4-bedf5bd24576">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -927,21 +923,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="37bcdbbe-1b84-46f8-a2e4-bedf5bd24576" xsi:nil="true"/>
+    <TaxCatchAll xmlns="e2fe3da4-e7b1-4e71-a513-56b717f56f6b" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="37bcdbbe-1b84-46f8-a2e4-bedf5bd24576">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F92369D0-E2D9-438E-977C-26874210B002}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB8192F-3B07-4D72-B166-5C843A05F0AB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="37bcdbbe-1b84-46f8-a2e4-bedf5bd24576"/>
-    <ds:schemaRef ds:uri="e2fe3da4-e7b1-4e71-a513-56b717f56f6b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -966,9 +962,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB8192F-3B07-4D72-B166-5C843A05F0AB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F92369D0-E2D9-438E-977C-26874210B002}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="37bcdbbe-1b84-46f8-a2e4-bedf5bd24576"/>
+    <ds:schemaRef ds:uri="e2fe3da4-e7b1-4e71-a513-56b717f56f6b"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>